--- a/RPROCL.xlsx
+++ b/RPROCL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
   <si>
     <t/>
   </si>
@@ -31,28 +31,85 @@
     <t>PT,(E-1H)</t>
   </si>
   <si>
-    <t>20128986</t>
-  </si>
-  <si>
-    <t>FIESTA SSG RTG ORI65</t>
+    <t>20033350</t>
+  </si>
+  <si>
+    <t>G/F FRS MLK F/CRM320</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>95</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>RT,(E-3H)</t>
+  </si>
+  <si>
+    <t>20088719</t>
+  </si>
+  <si>
+    <t>KNZLER SNGLES ORG 65</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>RT,(E-7H)</t>
   </si>
   <si>
-    <t>20135147</t>
-  </si>
-  <si>
-    <t>FIESTA SSG RTG KRN60</t>
-  </si>
-  <si>
-    <t>114</t>
+    <t>20088730</t>
+  </si>
+  <si>
+    <t>KNZLER SNGLES KJU 60</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>20106308</t>
+  </si>
+  <si>
+    <t>KNZLER SNGLES HOT 65</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>20126489</t>
+  </si>
+  <si>
+    <t>KNZLER SNGL GCHJNG60</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>20137459</t>
+  </si>
+  <si>
+    <t>KZLR BAKSO GCHJNG 55</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>20137391</t>
+  </si>
+  <si>
+    <t>SG SOSIS JPG HOT 55G</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>20137392</t>
+  </si>
+  <si>
+    <t>SG SOSIS JPG KEJU 55</t>
+  </si>
+  <si>
+    <t>129</t>
   </si>
   <si>
     <t>20138147</t>
@@ -82,24 +139,6 @@
     <t>141</t>
   </si>
   <si>
-    <t>20137601</t>
-  </si>
-  <si>
-    <t>IDMLK YOGRT STRAW 70</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>20137602</t>
-  </si>
-  <si>
-    <t>IDMLK YGRT BLUBRY 70</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
     <t>20139684</t>
   </si>
   <si>
@@ -118,40 +157,88 @@
     <t>158</t>
   </si>
   <si>
-    <t>20028227</t>
-  </si>
-  <si>
-    <t>CORNETTO DISC CHO108</t>
+    <t>20139811</t>
+  </si>
+  <si>
+    <t>MABELL SS S.TEMPONG</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>20139812</t>
+  </si>
+  <si>
+    <t>MABELL GOCHUJANG 60G</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>10037636</t>
+  </si>
+  <si>
+    <t>CMPN HULA KCG.HJU 45</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>2</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>20026370</t>
+  </si>
+  <si>
+    <t>CMPN HULA TAP KTN 45</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>20113120</t>
+  </si>
+  <si>
+    <t>AICE CHOCO ALMOND 90</t>
+  </si>
+  <si>
+    <t>82</t>
   </si>
   <si>
     <t>RT,(E-3B)</t>
   </si>
   <si>
-    <t>20070539</t>
-  </si>
-  <si>
-    <t>AICE CHOCO CRPSY 60G</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20136703</t>
-  </si>
-  <si>
-    <t>CRNETTO YGRT BRY 108</t>
-  </si>
-  <si>
-    <t>198</t>
+    <t>20131384</t>
+  </si>
+  <si>
+    <t>CMPNA HULA ALPKAT 45</t>
+  </si>
+  <si>
+    <t>173</t>
   </si>
   <si>
     <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20134511</t>
+  </si>
+  <si>
+    <t>AICE CLSC CHO ALMD90</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>20140183</t>
+  </si>
+  <si>
+    <t>WALLS X PC PSL 90ML</t>
+  </si>
+  <si>
+    <t>240</t>
   </si>
 </sst>
 </file>
@@ -544,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -632,15 +719,15 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -649,18 +736,18 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -669,18 +756,18 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -689,18 +776,18 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -709,18 +796,18 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -729,18 +816,18 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -749,18 +836,18 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -769,70 +856,250 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
